--- a/DOc/API list.xlsx
+++ b/DOc/API list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workplace\web_wp\EIE4432\prj\DOc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA45E5C-4316-4A41-946A-A8FE2A9747E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE88D1-8D43-4B3B-9DA8-02160C146013}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{39961C26-E73D-429B-AB53-1241AD444263}"/>
   </bookViews>
@@ -210,10 +210,6 @@
   </si>
   <si>
     <t>设置/修改 餐厅营业资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,6 +359,11 @@
 *order_id
 *is_accepted
 reason (applied and applied only when canceled the order)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*date
+cuisine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BAC2E8-2887-4062-A1E7-0A727A078C44}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -817,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
@@ -848,10 +849,10 @@
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -882,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -899,10 +900,10 @@
         <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
@@ -916,7 +917,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>

--- a/DOc/API list.xlsx
+++ b/DOc/API list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workplace\web_wp\EIE4432\prj\DOc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Developer\EIE4432-Web\DOc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA45E5C-4316-4A41-946A-A8FE2A9747E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31141190-AF87-4CC1-BDD6-A8DF251B9D1C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{39961C26-E73D-429B-AB53-1241AD444263}"/>
   </bookViews>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,8 +309,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">*user_id
+    <t>*user_id
 *restaurant_id
+*order_id
+*is_accepted
+reason (applied and applied only when canceled the order)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*restaurant_id
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,8 +342,8 @@
         },
         {
             "order_id": 514,
-            "user_id": 12,
-            "thumbnail_image": "http://www.google.com/test.image",
+            "user_i+E7d": 12,
+            "t+E36humbnail_image": "http://www.google.com/test.image",
             "time": "2018-11-09T06:35Z",
             "number_of_people": 4,
             "name":"richard",
@@ -355,14 +362,6 @@
         }
     ]
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*user_id
-*restaurant_id
-*order_id
-*is_accepted
-reason (applied and applied only when canceled the order)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BAC2E8-2887-4062-A1E7-0A727A078C44}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -780,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -791,135 +790,135 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
